--- a/Tables/100 Tables.xlsx
+++ b/Tables/100 Tables.xlsx
@@ -86,12 +86,18 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -121,16 +127,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -144,18 +147,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -460,11 +469,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.7109375"/>
     <col min="2" max="2" width="20.5703125"/>
@@ -477,279 +486,279 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>2978</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>2918.2</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="15">
         <v>13.09146</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>1773</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>2980</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>2899.4</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>15.655620000000001</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>1981</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>3063</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>3047.2</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>15.04846</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>2439</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>3079</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>3035.4</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>15.419972</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>2483</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>3052</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>3030</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>959.98478999999998</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>2453.4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>3056</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>3028</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>932.69533799999999</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>2559.6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="15">
         <v>3081</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="15">
         <v>3071.8</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>663.89455999999996</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>2171.1999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>3023</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>2943.4</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>240.23815999999999</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="15">
         <v>791.8</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>2293</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>2226</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>11.30184</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="6"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>3033</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>2684.8</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>10.624776000000001</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="6"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>2719</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>2648.2</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>5.9783799999999996</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="6"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>3036</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <v>3004</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>6.55307</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="6"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
